--- a/Nastavitve/crontabs/cronjobs.xlsx
+++ b/Nastavitve/crontabs/cronjobs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="cronjob" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>reboot</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>mm/s</t>
+  </si>
+  <si>
+    <t>vsakih 15 min</t>
+  </si>
+  <si>
+    <t>pobriši log za umount</t>
   </si>
 </sst>
 </file>
@@ -7044,7 +7050,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7383,8 +7389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7397,6 +7403,7 @@
     <col min="9" max="9" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -7418,6 +7425,9 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
       <c r="P1" t="s">
         <v>15</v>
       </c>
@@ -7450,13 +7460,16 @@
       <c r="M2" t="s">
         <v>0</v>
       </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="P3">
-        <f>COUNT(A3:M3)</f>
+        <f>COUNT(A3:O3)</f>
         <v>1</v>
       </c>
     </row>
@@ -7465,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P62" si="0">COUNT(A4:M4)</f>
+        <f t="shared" ref="P4:P62" si="0">COUNT(A4:O4)</f>
         <v>1</v>
       </c>
     </row>
@@ -7506,7 +7519,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="M9">
         <v>6</v>
       </c>
       <c r="P9">
@@ -7533,7 +7546,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="O12">
         <v>9</v>
       </c>
       <c r="P12">
@@ -7740,7 +7753,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M35">
+      <c r="A35">
         <v>32</v>
       </c>
       <c r="P35">
@@ -7992,6 +8005,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="P3:P62">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11405,7 +11430,7 @@
         <v>1020</v>
       </c>
       <c r="F204" s="4">
-        <f t="shared" ref="F204:F239" si="10">F203+$B$2*5/1000*200</f>
+        <f t="shared" ref="F204:F238" si="10">F203+$B$2*5/1000*200</f>
         <v>2.041666666666671</v>
       </c>
       <c r="G204" s="4">
